--- a/biology/Botanique/Eulychnia_breviflora/Eulychnia_breviflora.xlsx
+++ b/biology/Botanique/Eulychnia_breviflora/Eulychnia_breviflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eulychnia breviflora est une espèce de cactus arborescent endémique des régions de Coquimbo et d'Atacama, dans le nord du Chili[1]. Tout comme Eulychnia acida, E. breviflora porte des fruits comestibles qui, contrairement à ceux de E. acida, portent des villosités et des épines sur leurs écailles[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eulychnia breviflora est une espèce de cactus arborescent endémique des régions de Coquimbo et d'Atacama, dans le nord du Chili. Tout comme Eulychnia acida, E. breviflora porte des fruits comestibles qui, contrairement à ceux de E. acida, portent des villosités et des épines sur leurs écailles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">E. Breviflora est un cactus colonnaire buissonnant ou arborescent. Il porte des fleurs et des fruits, qui se forment préférentiellement du côté Nord de la tige, qui bénéficie d'un meilleur ensoleillement (l'habitat de la plante étant situé au sud du Tropique du Capricorne)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E. Breviflora est un cactus colonnaire buissonnant ou arborescent. Il porte des fleurs et des fruits, qui se forment préférentiellement du côté Nord de la tige, qui bénéficie d'un meilleur ensoleillement (l'habitat de la plante étant situé au sud du Tropique du Capricorne).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Eulychnia breviflora Phil.[4].
-Eulychnia breviflora a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Eulychnia breviflora Phil..
+Eulychnia breviflora a pour synonymes :
 Cereus chiloensis var. heteromorphus (Monv.) K.Schum.
 Cereus coquimbanus K.Schum.
 Cereus heteromorphus Monv.
